--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Sierra_Leone/Pandémie_de_Covid-19_en_Sierra_Leone.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Sierra_Leone/Pandémie_de_Covid-19_en_Sierra_Leone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Sierra_Leone</t>
+          <t>Pandémie_de_Covid-19_en_Sierra_Leone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Sierra Leone démarre officiellement le 31 mars 2020. À la date du 24 octobre 2022, le bilan est de 126 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Sierra_Leone</t>
+          <t>Pandémie_de_Covid-19_en_Sierra_Leone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas de covid-19 en Sierra Leone est confirmé le 31 mars 2020. Il s'agit d'un homme de 37 ans de retour d'un voyage en France[2]. La barre des dix cas confirmés est atteinte le 11 avril, celle des 100 cas le 28 avril, et celle des 1 000 cas le 8 juin 2020[3].
-Le premier décès est intervenu le 23 avril 2020, le dixième le 5 mai 2020, et le 100ème le 30 juin 2021[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas de covid-19 en Sierra Leone est confirmé le 31 mars 2020. Il s'agit d'un homme de 37 ans de retour d'un voyage en France. La barre des dix cas confirmés est atteinte le 11 avril, celle des 100 cas le 28 avril, et celle des 1 000 cas le 8 juin 2020.
+Le premier décès est intervenu le 23 avril 2020, le dixième le 5 mai 2020, et le 100ème le 30 juin 2021.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Sierra_Leone</t>
+          <t>Pandémie_de_Covid-19_en_Sierra_Leone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
